--- a/data/pca/factorExposure/factorExposure_2010-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-17.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01473085224002143</v>
+        <v>-0.01660482091299239</v>
       </c>
       <c r="C2">
-        <v>-0.004065373960768844</v>
+        <v>-0.0008666187876809499</v>
       </c>
       <c r="D2">
-        <v>0.01061717543554043</v>
+        <v>0.00848511252219609</v>
       </c>
       <c r="E2">
-        <v>0.005250512086757133</v>
+        <v>-0.002672681361773955</v>
       </c>
       <c r="F2">
-        <v>0.03260768842933497</v>
+        <v>0.01366094549724322</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1232785998913386</v>
+        <v>-0.09573661068523406</v>
       </c>
       <c r="C4">
-        <v>-0.1036580111872873</v>
+        <v>-0.0178795574568111</v>
       </c>
       <c r="D4">
-        <v>-0.004788066792499658</v>
+        <v>0.08166345916072362</v>
       </c>
       <c r="E4">
-        <v>-0.1667627508367732</v>
+        <v>0.02711323846985764</v>
       </c>
       <c r="F4">
-        <v>0.0359658489540479</v>
+        <v>-0.0395104383651745</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1279061243044007</v>
+        <v>-0.151985748549746</v>
       </c>
       <c r="C6">
-        <v>-0.06626073224946658</v>
+        <v>-0.02438523418541953</v>
       </c>
       <c r="D6">
-        <v>-0.002859180216934603</v>
+        <v>-0.02395482519495539</v>
       </c>
       <c r="E6">
-        <v>-0.05188731428699316</v>
+        <v>0.01422471392457026</v>
       </c>
       <c r="F6">
-        <v>-0.03335993262652991</v>
+        <v>-0.03886191422924548</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07598348219532823</v>
+        <v>-0.06200951555292891</v>
       </c>
       <c r="C7">
-        <v>-0.07960719108898581</v>
+        <v>-0.0003689706447717068</v>
       </c>
       <c r="D7">
-        <v>0.01347645394777037</v>
+        <v>0.05150559675903522</v>
       </c>
       <c r="E7">
-        <v>-0.01472943180471212</v>
+        <v>0.01359210434603542</v>
       </c>
       <c r="F7">
-        <v>-0.001209670267936799</v>
+        <v>-0.05872118731682254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0427409473228862</v>
+        <v>-0.05975357652985371</v>
       </c>
       <c r="C8">
-        <v>-0.007836727566670124</v>
+        <v>0.01248795953021987</v>
       </c>
       <c r="D8">
-        <v>0.006561745168190669</v>
+        <v>0.02706695396868625</v>
       </c>
       <c r="E8">
-        <v>-0.105528521586096</v>
+        <v>0.01166085838375842</v>
       </c>
       <c r="F8">
-        <v>0.04245847794559392</v>
+        <v>0.02169782384567867</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08808789419087154</v>
+        <v>-0.07295394882236235</v>
       </c>
       <c r="C9">
-        <v>-0.079924175030333</v>
+        <v>-0.0142699382675739</v>
       </c>
       <c r="D9">
-        <v>-0.02167830998299319</v>
+        <v>0.07952219993322321</v>
       </c>
       <c r="E9">
-        <v>-0.1421155670106131</v>
+        <v>0.02098211700204813</v>
       </c>
       <c r="F9">
-        <v>0.02850058547842643</v>
+        <v>-0.06241869726187664</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1371993740764957</v>
+        <v>-0.09216085234967332</v>
       </c>
       <c r="C10">
-        <v>0.173512523522131</v>
+        <v>-0.01373527805852036</v>
       </c>
       <c r="D10">
-        <v>0.0004349056833664797</v>
+        <v>-0.1726757626876374</v>
       </c>
       <c r="E10">
-        <v>0.03333428961312547</v>
+        <v>-0.03629716071577073</v>
       </c>
       <c r="F10">
-        <v>-0.01512299049327525</v>
+        <v>0.0500135034475546</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06874787810536502</v>
+        <v>-0.08864402908182765</v>
       </c>
       <c r="C11">
-        <v>-0.06249340115338314</v>
+        <v>-0.01350926559670068</v>
       </c>
       <c r="D11">
-        <v>-0.04412852244452828</v>
+        <v>0.110637913454091</v>
       </c>
       <c r="E11">
-        <v>-0.1057936325932151</v>
+        <v>0.04206360680722827</v>
       </c>
       <c r="F11">
-        <v>0.02693716732838862</v>
+        <v>-0.02774189627807313</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07225603501015523</v>
+        <v>-0.09354674921834645</v>
       </c>
       <c r="C12">
-        <v>-0.06938538174901687</v>
+        <v>-0.01156387404464054</v>
       </c>
       <c r="D12">
-        <v>-0.05236606244521907</v>
+        <v>0.1168521446352224</v>
       </c>
       <c r="E12">
-        <v>-0.1150457895912492</v>
+        <v>0.03957908479905305</v>
       </c>
       <c r="F12">
-        <v>-0.01856238761031389</v>
+        <v>-0.0305465819836157</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03657558981031342</v>
+        <v>-0.04421162910315465</v>
       </c>
       <c r="C13">
-        <v>-0.0397592768819225</v>
+        <v>-0.004935787209766136</v>
       </c>
       <c r="D13">
-        <v>0.02373207809096643</v>
+        <v>0.04328326937039532</v>
       </c>
       <c r="E13">
-        <v>-0.03613697511349363</v>
+        <v>-0.01423795938739745</v>
       </c>
       <c r="F13">
-        <v>0.009101618647093157</v>
+        <v>-0.02104308578384578</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03823365126970426</v>
+        <v>-0.02213624346422973</v>
       </c>
       <c r="C14">
-        <v>-0.03452427475117376</v>
+        <v>-0.01517334092350643</v>
       </c>
       <c r="D14">
-        <v>-0.01653639875501723</v>
+        <v>0.02963020302997198</v>
       </c>
       <c r="E14">
-        <v>-0.06147130185544628</v>
+        <v>0.01487184831430111</v>
       </c>
       <c r="F14">
-        <v>-0.003514933142328394</v>
+        <v>-0.02841984858037139</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02302897607719652</v>
+        <v>-0.03267743937309731</v>
       </c>
       <c r="C15">
-        <v>-0.01327561179085014</v>
+        <v>-0.006194894670251926</v>
       </c>
       <c r="D15">
-        <v>0.06673410409070653</v>
+        <v>0.04141789467804476</v>
       </c>
       <c r="E15">
-        <v>-0.01467597414144304</v>
+        <v>0.007315430586609124</v>
       </c>
       <c r="F15">
-        <v>0.02513585381727417</v>
+        <v>-0.03537982390908972</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0797126145026663</v>
+        <v>-0.0755011348365076</v>
       </c>
       <c r="C16">
-        <v>-0.07792595680802535</v>
+        <v>-0.005323359426126745</v>
       </c>
       <c r="D16">
-        <v>-0.03918192009471752</v>
+        <v>0.114911364173272</v>
       </c>
       <c r="E16">
-        <v>-0.1021780315408293</v>
+        <v>0.05703426278801832</v>
       </c>
       <c r="F16">
-        <v>-0.006248480623426465</v>
+        <v>-0.03626488555606928</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01999137356085942</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.00399904448626307</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02358616193221592</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01142791287173522</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02967987291430363</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04776016623334038</v>
+        <v>-0.06175654031102776</v>
       </c>
       <c r="C20">
-        <v>-0.02328272697226223</v>
+        <v>-0.002953959260026956</v>
       </c>
       <c r="D20">
-        <v>0.03196128295825787</v>
+        <v>0.06861849854281428</v>
       </c>
       <c r="E20">
-        <v>-0.07614683777028347</v>
+        <v>0.05044258842774052</v>
       </c>
       <c r="F20">
-        <v>-0.01175194934211457</v>
+        <v>-0.03265019662865834</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03371642942513327</v>
+        <v>-0.03858188352681679</v>
       </c>
       <c r="C21">
-        <v>-0.02514501312093547</v>
+        <v>-0.007961262825681747</v>
       </c>
       <c r="D21">
-        <v>-0.02050390548874496</v>
+        <v>0.03401508766780531</v>
       </c>
       <c r="E21">
-        <v>-0.07305677323255945</v>
+        <v>-0.01303613714232583</v>
       </c>
       <c r="F21">
-        <v>0.02294798498781462</v>
+        <v>0.0188093353287835</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05702963206083583</v>
+        <v>-0.04245020147182484</v>
       </c>
       <c r="C22">
-        <v>0.003776514293166953</v>
+        <v>-0.001071150502112496</v>
       </c>
       <c r="D22">
-        <v>0.6492504493425458</v>
+        <v>-0.001260513981192357</v>
       </c>
       <c r="E22">
-        <v>-0.007468813355894889</v>
+        <v>0.03145966893813697</v>
       </c>
       <c r="F22">
-        <v>-0.111998628875694</v>
+        <v>0.02207115030194512</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05800627909127408</v>
+        <v>-0.04254337816402096</v>
       </c>
       <c r="C23">
-        <v>0.001974614952863653</v>
+        <v>-0.001105694055661936</v>
       </c>
       <c r="D23">
-        <v>0.6515897313173086</v>
+        <v>-0.001048809001609619</v>
       </c>
       <c r="E23">
-        <v>-0.01284245823937868</v>
+        <v>0.03188198940557765</v>
       </c>
       <c r="F23">
-        <v>-0.1117661116201408</v>
+        <v>0.02152302652894968</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07864100192248651</v>
+        <v>-0.08202017581189705</v>
       </c>
       <c r="C24">
-        <v>-0.07780864311100608</v>
+        <v>-0.005481862460394552</v>
       </c>
       <c r="D24">
-        <v>-0.03121940267796111</v>
+        <v>0.1152411341887213</v>
       </c>
       <c r="E24">
-        <v>-0.1037600894951213</v>
+        <v>0.04571280434246597</v>
       </c>
       <c r="F24">
-        <v>0.008945706117958677</v>
+        <v>-0.02835999610564723</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0773638636960232</v>
+        <v>-0.08609206440687618</v>
       </c>
       <c r="C25">
-        <v>-0.06017646943799095</v>
+        <v>-0.007456931074144197</v>
       </c>
       <c r="D25">
-        <v>-0.057912548864131</v>
+        <v>0.1007154770006078</v>
       </c>
       <c r="E25">
-        <v>-0.1058097562012587</v>
+        <v>0.02774183973056539</v>
       </c>
       <c r="F25">
-        <v>0.008498623903038115</v>
+        <v>-0.03855557837940574</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04213620952974422</v>
+        <v>-0.05647604720546977</v>
       </c>
       <c r="C26">
-        <v>-0.01062669338787833</v>
+        <v>-0.01584727188273062</v>
       </c>
       <c r="D26">
-        <v>0.01581867702381446</v>
+        <v>0.03166272669481274</v>
       </c>
       <c r="E26">
-        <v>-0.07536963397677057</v>
+        <v>0.0226432530507802</v>
       </c>
       <c r="F26">
-        <v>-0.06695309766009321</v>
+        <v>0.001118105804733294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1619647282841783</v>
+        <v>-0.1383543935261607</v>
       </c>
       <c r="C28">
-        <v>0.2672794658020037</v>
+        <v>-0.01065002910091881</v>
       </c>
       <c r="D28">
-        <v>-0.02093320582678632</v>
+        <v>-0.2725347216891515</v>
       </c>
       <c r="E28">
-        <v>-0.03369480037717146</v>
+        <v>-0.06690574933842162</v>
       </c>
       <c r="F28">
-        <v>-0.009762466465756183</v>
+        <v>-0.04542188778088777</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03705122923483019</v>
+        <v>-0.02731399674245951</v>
       </c>
       <c r="C29">
-        <v>-0.03412427344404923</v>
+        <v>-0.00937084447523772</v>
       </c>
       <c r="D29">
-        <v>-0.01593948862180147</v>
+        <v>0.02870974251290229</v>
       </c>
       <c r="E29">
-        <v>-0.06071441374181213</v>
+        <v>0.007741995200584028</v>
       </c>
       <c r="F29">
-        <v>0.005833462941529788</v>
+        <v>0.004704942664148645</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0838015008497414</v>
+        <v>-0.06475304688361756</v>
       </c>
       <c r="C30">
-        <v>-0.06760617650850943</v>
+        <v>-0.007276003437990833</v>
       </c>
       <c r="D30">
-        <v>-0.01752103243065894</v>
+        <v>0.07718825152492152</v>
       </c>
       <c r="E30">
-        <v>-0.2198970097378397</v>
+        <v>0.02159604564219504</v>
       </c>
       <c r="F30">
-        <v>-0.1304115247930537</v>
+        <v>-0.1242429567724581</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02786799404818568</v>
+        <v>-0.04895109770960467</v>
       </c>
       <c r="C31">
-        <v>-0.05783169520376008</v>
+        <v>-0.01534513523987287</v>
       </c>
       <c r="D31">
-        <v>0.003753276476639715</v>
+        <v>0.02879173588362384</v>
       </c>
       <c r="E31">
-        <v>-0.04214418076648812</v>
+        <v>0.02626561737618334</v>
       </c>
       <c r="F31">
-        <v>0.01117947756327548</v>
+        <v>0.00267706662740333</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04959660306394006</v>
+        <v>-0.04943670018150834</v>
       </c>
       <c r="C32">
-        <v>-0.01535743833114898</v>
+        <v>-0.001074942101198101</v>
       </c>
       <c r="D32">
-        <v>-0.05284881136450819</v>
+        <v>0.02713261963047901</v>
       </c>
       <c r="E32">
-        <v>-0.03752003692763537</v>
+        <v>0.02510411181294609</v>
       </c>
       <c r="F32">
-        <v>0.07553622170711649</v>
+        <v>-0.004650095944023902</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09483876384461859</v>
+        <v>-0.09211361414304217</v>
       </c>
       <c r="C33">
-        <v>-0.07858518578217255</v>
+        <v>-0.01060837910100345</v>
       </c>
       <c r="D33">
-        <v>-0.02298712912304964</v>
+        <v>0.08989360154686823</v>
       </c>
       <c r="E33">
-        <v>-0.0587627823323854</v>
+        <v>0.04387291569412825</v>
       </c>
       <c r="F33">
-        <v>-0.02398824613907912</v>
+        <v>-0.0448046626217167</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06886856505357247</v>
+        <v>-0.06920848622793019</v>
       </c>
       <c r="C34">
-        <v>-0.05400174683076587</v>
+        <v>-0.0133166920037478</v>
       </c>
       <c r="D34">
-        <v>-0.04383773658578821</v>
+        <v>0.09489540420458824</v>
       </c>
       <c r="E34">
-        <v>-0.1011469483239678</v>
+        <v>0.02824741270638989</v>
       </c>
       <c r="F34">
-        <v>0.006206040441861134</v>
+        <v>-0.05382425121558944</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01689118813981411</v>
+        <v>-0.02441948467856208</v>
       </c>
       <c r="C35">
-        <v>-0.01267714004313516</v>
+        <v>-0.002683075512397977</v>
       </c>
       <c r="D35">
-        <v>0.0001160140480121489</v>
+        <v>0.009827172382389277</v>
       </c>
       <c r="E35">
-        <v>-0.03451001938129701</v>
+        <v>0.01113976568953659</v>
       </c>
       <c r="F35">
-        <v>0.001673512534047592</v>
+        <v>-0.01227439167671279</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02586225444407607</v>
+        <v>-0.02507802329653072</v>
       </c>
       <c r="C36">
-        <v>-0.01869057176002701</v>
+        <v>-0.007443804657866229</v>
       </c>
       <c r="D36">
-        <v>0.01294824124735609</v>
+        <v>0.03778768615723273</v>
       </c>
       <c r="E36">
-        <v>-0.08528190106501457</v>
+        <v>0.01464799320681024</v>
       </c>
       <c r="F36">
-        <v>-0.02095857957179592</v>
+        <v>-0.01087393563678533</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02176108788495995</v>
+        <v>-0.0028735722987535</v>
       </c>
       <c r="C38">
-        <v>-0.04934945507954089</v>
+        <v>-0.000533858123785813</v>
       </c>
       <c r="D38">
-        <v>0.02577927187539196</v>
+        <v>0.002978157485642584</v>
       </c>
       <c r="E38">
-        <v>0.1117069551853582</v>
+        <v>0.003779260546958704</v>
       </c>
       <c r="F38">
-        <v>-0.08631637159793513</v>
+        <v>0.002801457235477235</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09975137573670124</v>
+        <v>-0.1113264149271939</v>
       </c>
       <c r="C39">
-        <v>-0.09270660824688855</v>
+        <v>-0.01936793386921205</v>
       </c>
       <c r="D39">
-        <v>-0.1295847836875054</v>
+        <v>0.1463514378379393</v>
       </c>
       <c r="E39">
-        <v>-0.1527462902632352</v>
+        <v>0.05139583087473513</v>
       </c>
       <c r="F39">
-        <v>-0.1245732898487012</v>
+        <v>-0.04219514035257906</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02877815660690336</v>
+        <v>-0.03757621048263785</v>
       </c>
       <c r="C40">
-        <v>-0.06726772993641988</v>
+        <v>-0.007774439594947728</v>
       </c>
       <c r="D40">
-        <v>0.0296296576104527</v>
+        <v>0.0289494309466496</v>
       </c>
       <c r="E40">
-        <v>-0.04271806294578105</v>
+        <v>0.001483318270296042</v>
       </c>
       <c r="F40">
-        <v>0.09075440909478194</v>
+        <v>0.01789669333299623</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0359431600835689</v>
+        <v>-0.0265621001901214</v>
       </c>
       <c r="C41">
-        <v>-0.02474628438558728</v>
+        <v>-0.006807150326330893</v>
       </c>
       <c r="D41">
-        <v>-0.01798679881704763</v>
+        <v>0.01101223547665589</v>
       </c>
       <c r="E41">
-        <v>-0.006398856204526007</v>
+        <v>0.01122710539146177</v>
       </c>
       <c r="F41">
-        <v>-0.0242851958164251</v>
+        <v>0.01262592835739862</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0480426529643262</v>
+        <v>-0.04299910150706017</v>
       </c>
       <c r="C43">
-        <v>-0.04595343764903467</v>
+        <v>-0.007273643515535969</v>
       </c>
       <c r="D43">
-        <v>0.01017684962815663</v>
+        <v>0.02122675952621359</v>
       </c>
       <c r="E43">
-        <v>-0.02038918554153681</v>
+        <v>0.02596604267921892</v>
       </c>
       <c r="F43">
-        <v>-0.05912384653682382</v>
+        <v>0.01121293540884144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09606345581753066</v>
+        <v>-0.07355298966311331</v>
       </c>
       <c r="C44">
-        <v>-0.0892222566845317</v>
+        <v>-0.02320589800606079</v>
       </c>
       <c r="D44">
-        <v>0.0849482889185076</v>
+        <v>0.0995818220850737</v>
       </c>
       <c r="E44">
-        <v>-0.1135717517257307</v>
+        <v>0.06718895987105236</v>
       </c>
       <c r="F44">
-        <v>0.06041523503908588</v>
+        <v>-0.1826517195038166</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03921947622245957</v>
+        <v>-0.02368312895368082</v>
       </c>
       <c r="C46">
-        <v>-0.03526550561613683</v>
+        <v>-0.004360900902859918</v>
       </c>
       <c r="D46">
-        <v>0.04137844827124309</v>
+        <v>0.01204309483332957</v>
       </c>
       <c r="E46">
-        <v>-0.04432218908727753</v>
+        <v>0.02153258380310605</v>
       </c>
       <c r="F46">
-        <v>0.03297672465993399</v>
+        <v>0.001137502524672221</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05334431470900068</v>
+        <v>-0.05306957400431867</v>
       </c>
       <c r="C47">
-        <v>-0.04834544349958609</v>
+        <v>-0.003603059478696431</v>
       </c>
       <c r="D47">
-        <v>8.330712694782531e-05</v>
+        <v>0.01224520126902693</v>
       </c>
       <c r="E47">
-        <v>-0.01782392158878318</v>
+        <v>0.02252676767052686</v>
       </c>
       <c r="F47">
-        <v>-0.0196704727163896</v>
+        <v>0.04753830787493453</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04536315623836462</v>
+        <v>-0.04833999306004805</v>
       </c>
       <c r="C48">
-        <v>-0.01741386677436955</v>
+        <v>-0.00356604199992906</v>
       </c>
       <c r="D48">
-        <v>-0.01263799038846504</v>
+        <v>0.0446501707928664</v>
       </c>
       <c r="E48">
-        <v>-0.09235388463516529</v>
+        <v>-0.008845994527818377</v>
       </c>
       <c r="F48">
-        <v>0.03451186254272864</v>
+        <v>-0.01779816749883009</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2299451320880718</v>
+        <v>-0.2049378778028883</v>
       </c>
       <c r="C49">
-        <v>-0.04043045256030273</v>
+        <v>-0.01669847376445924</v>
       </c>
       <c r="D49">
-        <v>-0.0295595953946821</v>
+        <v>-0.008895102326091517</v>
       </c>
       <c r="E49">
-        <v>0.3101256217452756</v>
+        <v>0.04248594075023048</v>
       </c>
       <c r="F49">
-        <v>0.006502255415239213</v>
+        <v>-0.0334180181501301</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03792495432402688</v>
+        <v>-0.04873042193717961</v>
       </c>
       <c r="C50">
-        <v>-0.0487404608520217</v>
+        <v>-0.01140172022105214</v>
       </c>
       <c r="D50">
-        <v>-0.01161855954780319</v>
+        <v>0.02591868102030798</v>
       </c>
       <c r="E50">
-        <v>-0.06294421295061631</v>
+        <v>0.02868327926578379</v>
       </c>
       <c r="F50">
-        <v>-0.03061637500196057</v>
+        <v>-0.006874393930130586</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0275138032653796</v>
+        <v>-0.003321714077726296</v>
       </c>
       <c r="C51">
-        <v>-0.003848725333976472</v>
+        <v>-0.0007910571625857643</v>
       </c>
       <c r="D51">
-        <v>-0.0004959449806191249</v>
+        <v>-0.001430717214167997</v>
       </c>
       <c r="E51">
-        <v>0.05061304170768256</v>
+        <v>0.001487502100055666</v>
       </c>
       <c r="F51">
-        <v>0.01930626226986031</v>
+        <v>-0.004514767350956821</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03624088462633922</v>
+        <v>-0.1420510020256008</v>
       </c>
       <c r="C52">
-        <v>-0.020547870150528</v>
+        <v>-0.01280400269756521</v>
       </c>
       <c r="D52">
-        <v>-0.02424421705083079</v>
+        <v>0.04979488344205264</v>
       </c>
       <c r="E52">
-        <v>-0.01073849083008191</v>
+        <v>0.01773208640321355</v>
       </c>
       <c r="F52">
-        <v>-0.02322266239975566</v>
+        <v>-0.03034570461496434</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.146586197425522</v>
+        <v>-0.1728603812924008</v>
       </c>
       <c r="C53">
-        <v>-0.06440488098575083</v>
+        <v>-0.0156813112461475</v>
       </c>
       <c r="D53">
-        <v>0.01749407206925821</v>
+        <v>0.01616847535070844</v>
       </c>
       <c r="E53">
-        <v>0.08014422695247332</v>
+        <v>0.03851545475828665</v>
       </c>
       <c r="F53">
-        <v>-0.08014074483833108</v>
+        <v>-0.05888030105065591</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06150237901211542</v>
+        <v>-0.02355383864184333</v>
       </c>
       <c r="C54">
-        <v>-0.04364533448127361</v>
+        <v>-0.01309973229248562</v>
       </c>
       <c r="D54">
-        <v>-0.0001608135192867623</v>
+        <v>0.03126670633602907</v>
       </c>
       <c r="E54">
-        <v>-0.1371785148006027</v>
+        <v>0.01314368306840124</v>
       </c>
       <c r="F54">
-        <v>0.0316512328147244</v>
+        <v>0.000526347652753176</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08282198856537554</v>
+        <v>-0.1143579561843719</v>
       </c>
       <c r="C55">
-        <v>-0.05804236831556617</v>
+        <v>-0.0145518886633644</v>
       </c>
       <c r="D55">
-        <v>-0.03543181779397898</v>
+        <v>0.01412829856986423</v>
       </c>
       <c r="E55">
-        <v>0.01787191663329597</v>
+        <v>0.03077656908554487</v>
       </c>
       <c r="F55">
-        <v>-0.02990433503374334</v>
+        <v>-0.04615195477061784</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1406137356293478</v>
+        <v>-0.1774087080886977</v>
       </c>
       <c r="C56">
-        <v>-0.1042662554771717</v>
+        <v>-0.01304715672453534</v>
       </c>
       <c r="D56">
-        <v>-0.01697608964209936</v>
+        <v>0.0110346268357806</v>
       </c>
       <c r="E56">
-        <v>0.04690911495619982</v>
+        <v>0.04390402295369267</v>
       </c>
       <c r="F56">
-        <v>-0.05337767584572964</v>
+        <v>-0.02848555884456556</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04227602935851373</v>
+        <v>-0.04737200950760968</v>
       </c>
       <c r="C58">
-        <v>-0.02792511515138842</v>
+        <v>-0.003505847178463692</v>
       </c>
       <c r="D58">
-        <v>0.03989512412018812</v>
+        <v>0.06151485102249143</v>
       </c>
       <c r="E58">
-        <v>-0.04139610375461961</v>
+        <v>0.01565707288689914</v>
       </c>
       <c r="F58">
-        <v>0.01002159640580636</v>
+        <v>0.04367635308025792</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.216162889177942</v>
+        <v>-0.1692478293889526</v>
       </c>
       <c r="C59">
-        <v>0.2291547506184313</v>
+        <v>-0.01242120779843998</v>
       </c>
       <c r="D59">
-        <v>-0.05933107857525743</v>
+        <v>-0.2315133587160877</v>
       </c>
       <c r="E59">
-        <v>0.01067644455358101</v>
+        <v>-0.04778949156792978</v>
       </c>
       <c r="F59">
-        <v>0.04628096086932627</v>
+        <v>0.02970485462324646</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2244437661712324</v>
+        <v>-0.2396367229735492</v>
       </c>
       <c r="C60">
-        <v>-0.1473747246735464</v>
+        <v>0.004286839810424395</v>
       </c>
       <c r="D60">
-        <v>-0.06370248365339848</v>
+        <v>0.05092867307021273</v>
       </c>
       <c r="E60">
-        <v>0.1219893563997813</v>
+        <v>0.01288295397179474</v>
       </c>
       <c r="F60">
-        <v>0.03672680819540954</v>
+        <v>0.04493156573496039</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1010751415931796</v>
+        <v>-0.08633325975370763</v>
       </c>
       <c r="C61">
-        <v>-0.08140025167803208</v>
+        <v>-0.01514323002708054</v>
       </c>
       <c r="D61">
-        <v>-0.07241821192683534</v>
+        <v>0.1077457499205283</v>
       </c>
       <c r="E61">
-        <v>-0.1443037913430671</v>
+        <v>0.03442013445078324</v>
       </c>
       <c r="F61">
-        <v>-0.04073098721584834</v>
+        <v>-0.02539699148939775</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1311901575343997</v>
+        <v>-0.1690643743152517</v>
       </c>
       <c r="C62">
-        <v>-0.07379882141325907</v>
+        <v>-0.01701503773878416</v>
       </c>
       <c r="D62">
-        <v>0.004288016780081874</v>
+        <v>0.01279265474824417</v>
       </c>
       <c r="E62">
-        <v>0.07792444883998638</v>
+        <v>0.03962422875024533</v>
       </c>
       <c r="F62">
-        <v>-0.04991798561634803</v>
+        <v>-0.01047734972703679</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05019474108430264</v>
+        <v>-0.04258218603442654</v>
       </c>
       <c r="C63">
-        <v>-0.02419546494545196</v>
+        <v>-0.004321364485595076</v>
       </c>
       <c r="D63">
-        <v>-0.01048232027694476</v>
+        <v>0.04634854913676419</v>
       </c>
       <c r="E63">
-        <v>-0.07947934789377714</v>
+        <v>0.01467981584405057</v>
       </c>
       <c r="F63">
-        <v>-0.02071212343309039</v>
+        <v>-0.01206917470334293</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.092706209499941</v>
+        <v>-0.1119240715107059</v>
       </c>
       <c r="C64">
-        <v>-0.0581677438538631</v>
+        <v>-0.01210663729233187</v>
       </c>
       <c r="D64">
-        <v>0.004249650221228364</v>
+        <v>0.03877246583302835</v>
       </c>
       <c r="E64">
-        <v>-0.06560120686259387</v>
+        <v>0.01938417470540943</v>
       </c>
       <c r="F64">
-        <v>-0.02366772600423401</v>
+        <v>-0.0176888234675103</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1167235039715001</v>
+        <v>-0.1435833873762214</v>
       </c>
       <c r="C65">
-        <v>-0.04319360267604523</v>
+        <v>-0.03065138225400543</v>
       </c>
       <c r="D65">
-        <v>-0.01707729906779144</v>
+        <v>-0.04623043896198163</v>
       </c>
       <c r="E65">
-        <v>-0.0635809297833963</v>
+        <v>0.002747513069814544</v>
       </c>
       <c r="F65">
-        <v>-0.07636192818063356</v>
+        <v>-0.04209351648857564</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1101799152106866</v>
+        <v>-0.1335056781370673</v>
       </c>
       <c r="C66">
-        <v>-0.1214802038805419</v>
+        <v>-0.01691288425088676</v>
       </c>
       <c r="D66">
-        <v>-0.1137709961694838</v>
+        <v>0.1337417033030226</v>
       </c>
       <c r="E66">
-        <v>-0.1167465593209421</v>
+        <v>0.06042246614906046</v>
       </c>
       <c r="F66">
-        <v>-0.1261993019305318</v>
+        <v>-0.0461227988549151</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07601898311759037</v>
+        <v>-0.06514025437471009</v>
       </c>
       <c r="C67">
-        <v>-0.06103851036301283</v>
+        <v>-0.004338159886492342</v>
       </c>
       <c r="D67">
-        <v>0.03452906992182613</v>
+        <v>0.05377312304287866</v>
       </c>
       <c r="E67">
-        <v>0.1198513316555931</v>
+        <v>0.02079520476920652</v>
       </c>
       <c r="F67">
-        <v>-0.1114178012480961</v>
+        <v>0.04273736961152023</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1351092069997856</v>
+        <v>-0.1113416840698471</v>
       </c>
       <c r="C68">
-        <v>0.2619938361912483</v>
+        <v>-0.02164526216795347</v>
       </c>
       <c r="D68">
-        <v>-0.03038034588823818</v>
+        <v>-0.2701509540071356</v>
       </c>
       <c r="E68">
-        <v>-0.0534909844108602</v>
+        <v>-0.08671345419172885</v>
       </c>
       <c r="F68">
-        <v>-0.01319635647945687</v>
+        <v>-0.05022885460159596</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04653216123562518</v>
+        <v>-0.0406442222809176</v>
       </c>
       <c r="C69">
-        <v>-0.01659316618005128</v>
+        <v>-0.001398449805556009</v>
       </c>
       <c r="D69">
-        <v>0.003082986852715027</v>
+        <v>0.008427041786139509</v>
       </c>
       <c r="E69">
-        <v>-0.007408917606678245</v>
+        <v>0.02615696452811032</v>
       </c>
       <c r="F69">
-        <v>-0.03886431859484994</v>
+        <v>0.01697980593770239</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04935848793576489</v>
+        <v>-0.06483862447845759</v>
       </c>
       <c r="C70">
-        <v>-0.06679874462851795</v>
+        <v>0.02663525358292718</v>
       </c>
       <c r="D70">
-        <v>-0.0265711584442036</v>
+        <v>0.02339811987229992</v>
       </c>
       <c r="E70">
-        <v>-0.02906224782425757</v>
+        <v>-0.04643150320073242</v>
       </c>
       <c r="F70">
-        <v>-0.01305609987241839</v>
+        <v>0.3449362473586875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.153413462555285</v>
+        <v>-0.1302436750421446</v>
       </c>
       <c r="C71">
-        <v>0.2736157203847315</v>
+        <v>-0.02558660550914446</v>
       </c>
       <c r="D71">
-        <v>-0.02736416192174413</v>
+        <v>-0.2869372255110295</v>
       </c>
       <c r="E71">
-        <v>-0.06062037800279918</v>
+        <v>-0.09430346375813391</v>
       </c>
       <c r="F71">
-        <v>-0.03991735215728113</v>
+        <v>-0.05278630475384369</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.126330348858268</v>
+        <v>-0.1380378950635115</v>
       </c>
       <c r="C72">
-        <v>-0.02622955382909441</v>
+        <v>-0.02373661900746002</v>
       </c>
       <c r="D72">
-        <v>0.0008805419362389364</v>
+        <v>0.007023731357878371</v>
       </c>
       <c r="E72">
-        <v>-0.02289749709330489</v>
+        <v>0.04293555221960933</v>
       </c>
       <c r="F72">
-        <v>-0.04783105274340058</v>
+        <v>-0.02305217049532979</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2183452357889857</v>
+        <v>-0.2079219546510422</v>
       </c>
       <c r="C73">
-        <v>-0.1038732230815909</v>
+        <v>-0.01129059518453045</v>
       </c>
       <c r="D73">
-        <v>-0.1180299720940915</v>
+        <v>0.01858118098311668</v>
       </c>
       <c r="E73">
-        <v>0.5251909506986758</v>
+        <v>0.06972410390541411</v>
       </c>
       <c r="F73">
-        <v>-0.06134965409905175</v>
+        <v>-0.02461867727452903</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09180279346835256</v>
+        <v>-0.09377271002941029</v>
       </c>
       <c r="C74">
-        <v>-0.08779196064085497</v>
+        <v>-0.01187976173430051</v>
       </c>
       <c r="D74">
-        <v>-0.0002762785999878683</v>
+        <v>0.02513829347755435</v>
       </c>
       <c r="E74">
-        <v>0.05662584166427435</v>
+        <v>0.0507319220363127</v>
       </c>
       <c r="F74">
-        <v>-0.09692885693789088</v>
+        <v>-0.03961306983616548</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09222307290565555</v>
+        <v>-0.1301582798026269</v>
       </c>
       <c r="C75">
-        <v>-0.07247365098877512</v>
+        <v>-0.0263105355593222</v>
       </c>
       <c r="D75">
-        <v>-0.0006781774037464772</v>
+        <v>0.03465179097186297</v>
       </c>
       <c r="E75">
-        <v>0.008042502978766486</v>
+        <v>0.06107679627671136</v>
       </c>
       <c r="F75">
-        <v>-0.006788436796763235</v>
+        <v>-0.008123436060419228</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06053842535046174</v>
+        <v>-0.007604308166541772</v>
       </c>
       <c r="C76">
-        <v>-0.06891107621009382</v>
+        <v>-0.001701980148926612</v>
       </c>
       <c r="D76">
-        <v>0.006202744867096472</v>
+        <v>0.003045063710615426</v>
       </c>
       <c r="E76">
-        <v>0.05517884330148008</v>
+        <v>0.007728783026581867</v>
       </c>
       <c r="F76">
-        <v>-0.01561211089532695</v>
+        <v>-0.004158873600726071</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06485013351065909</v>
+        <v>-0.08095300941900929</v>
       </c>
       <c r="C77">
-        <v>-0.03050122896986552</v>
+        <v>-0.01182299990123948</v>
       </c>
       <c r="D77">
-        <v>-0.03358944690774727</v>
+        <v>0.1029044646388896</v>
       </c>
       <c r="E77">
-        <v>-0.1598709784471677</v>
+        <v>0.03117241042476941</v>
       </c>
       <c r="F77">
-        <v>0.03551470145338487</v>
+        <v>-0.03760742771395278</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1683133367434783</v>
+        <v>-0.1098613269897625</v>
       </c>
       <c r="C78">
-        <v>-0.1593021250835897</v>
+        <v>-0.0436303581356229</v>
       </c>
       <c r="D78">
-        <v>0.1633337225916774</v>
+        <v>0.11885566929888</v>
       </c>
       <c r="E78">
-        <v>-0.1199332526397235</v>
+        <v>0.08973826254334978</v>
       </c>
       <c r="F78">
-        <v>0.6245213409880953</v>
+        <v>-0.07333130698254113</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1280793326097743</v>
+        <v>-0.1631389681625893</v>
       </c>
       <c r="C79">
-        <v>-0.08806908444601726</v>
+        <v>-0.02013198753714361</v>
       </c>
       <c r="D79">
-        <v>0.01094648035458512</v>
+        <v>0.02114158649277824</v>
       </c>
       <c r="E79">
-        <v>0.02268317770659927</v>
+        <v>0.04963120338477946</v>
       </c>
       <c r="F79">
-        <v>-0.03707527573904171</v>
+        <v>-0.003958260025297245</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0722814804246113</v>
+        <v>-0.08057367292789407</v>
       </c>
       <c r="C80">
-        <v>-0.05486766828253989</v>
+        <v>0.000835206936328853</v>
       </c>
       <c r="D80">
-        <v>-0.08245532688607544</v>
+        <v>0.05752857116217988</v>
       </c>
       <c r="E80">
-        <v>-0.04950436833349658</v>
+        <v>0.03073455236350664</v>
       </c>
       <c r="F80">
-        <v>-0.04862642771375903</v>
+        <v>0.01152312460957601</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1254518034950189</v>
+        <v>-0.122852606758363</v>
       </c>
       <c r="C81">
-        <v>-0.07396749980745024</v>
+        <v>-0.0299714026428888</v>
       </c>
       <c r="D81">
-        <v>0.01068412696476446</v>
+        <v>0.02144595764780733</v>
       </c>
       <c r="E81">
-        <v>-0.05111533888966449</v>
+        <v>0.06085599798839678</v>
       </c>
       <c r="F81">
-        <v>-0.03388561094160607</v>
+        <v>0.00465755493602821</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1202996900960767</v>
+        <v>-0.1622329278270723</v>
       </c>
       <c r="C82">
-        <v>-0.0644251376476116</v>
+        <v>-0.02043961296795488</v>
       </c>
       <c r="D82">
-        <v>-0.006763540773939747</v>
+        <v>0.01861830044479413</v>
       </c>
       <c r="E82">
-        <v>0.02070994579453037</v>
+        <v>0.03693519189271945</v>
       </c>
       <c r="F82">
-        <v>-0.09383424219183946</v>
+        <v>-0.05313613443245617</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07494060995057368</v>
+        <v>-0.06628864797535446</v>
       </c>
       <c r="C83">
-        <v>-0.09129650516033797</v>
+        <v>-0.004507766307958864</v>
       </c>
       <c r="D83">
-        <v>-0.02080891257436522</v>
+        <v>0.04745424944333893</v>
       </c>
       <c r="E83">
-        <v>-0.007733113568468065</v>
+        <v>0.002796228503213811</v>
       </c>
       <c r="F83">
-        <v>-0.09497040083073011</v>
+        <v>0.03746166491949002</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05301138630275248</v>
+        <v>-0.06125796287052938</v>
       </c>
       <c r="C84">
-        <v>0.07025468426796884</v>
+        <v>-0.01169296355205524</v>
       </c>
       <c r="D84">
-        <v>-0.0438889319981452</v>
+        <v>0.06074817553873155</v>
       </c>
       <c r="E84">
-        <v>-0.05218663552869102</v>
+        <v>-0.003414564272890293</v>
       </c>
       <c r="F84">
-        <v>0.2249595409948305</v>
+        <v>-0.01435854436247707</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1169653909485223</v>
+        <v>-0.1381199545903276</v>
       </c>
       <c r="C85">
-        <v>-0.05441828440480615</v>
+        <v>-0.02549604259680157</v>
       </c>
       <c r="D85">
-        <v>-0.002061202063494504</v>
+        <v>0.01642164300188152</v>
       </c>
       <c r="E85">
-        <v>0.02682670517109415</v>
+        <v>0.04119405178863522</v>
       </c>
       <c r="F85">
-        <v>-0.06340675443861037</v>
+        <v>-0.04077596199529601</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08486078215828853</v>
+        <v>-0.1000110028799252</v>
       </c>
       <c r="C86">
-        <v>-0.01400088128235006</v>
+        <v>0.006973376494281851</v>
       </c>
       <c r="D86">
-        <v>0.02269531063941615</v>
+        <v>0.01643621883237715</v>
       </c>
       <c r="E86">
-        <v>0.1404806310848206</v>
+        <v>0.1264878028571069</v>
       </c>
       <c r="F86">
-        <v>0.5325454779027585</v>
+        <v>0.8257116383008333</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1232758460603558</v>
+        <v>-0.1004346795496908</v>
       </c>
       <c r="C87">
-        <v>-0.07961341985132468</v>
+        <v>-0.02596472684087973</v>
       </c>
       <c r="D87">
-        <v>0.01496903546860909</v>
+        <v>0.0724104697051043</v>
       </c>
       <c r="E87">
-        <v>-0.06510338173603707</v>
+        <v>-0.05157370700895628</v>
       </c>
       <c r="F87">
-        <v>0.0125750564269632</v>
+        <v>-0.09361375671682796</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05709424191562871</v>
+        <v>-0.06216374704595536</v>
       </c>
       <c r="C88">
-        <v>-0.06279706378610726</v>
+        <v>-0.003365528597996303</v>
       </c>
       <c r="D88">
-        <v>-0.0354518394364227</v>
+        <v>0.05479447858775849</v>
       </c>
       <c r="E88">
-        <v>-0.02328283730545764</v>
+        <v>0.02660726593185273</v>
       </c>
       <c r="F88">
-        <v>-0.0467835281449251</v>
+        <v>-0.006138533091704665</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2367814029088775</v>
+        <v>-0.1316897647737548</v>
       </c>
       <c r="C89">
-        <v>0.3645205224316749</v>
+        <v>-0.004707558392426938</v>
       </c>
       <c r="D89">
-        <v>0.03463480908994496</v>
+        <v>-0.2711770750655754</v>
       </c>
       <c r="E89">
-        <v>0.009192575879923233</v>
+        <v>-0.09258329490679609</v>
       </c>
       <c r="F89">
-        <v>0.04332363490689742</v>
+        <v>-0.03547986309949235</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1610765322406738</v>
+        <v>-0.1424850466572386</v>
       </c>
       <c r="C90">
-        <v>0.2563988469317298</v>
+        <v>-0.02107856905219103</v>
       </c>
       <c r="D90">
-        <v>-0.02031052703872703</v>
+        <v>-0.2714581496846198</v>
       </c>
       <c r="E90">
-        <v>-0.01519696996556086</v>
+        <v>-0.1053830258949825</v>
       </c>
       <c r="F90">
-        <v>-0.02497324764364603</v>
+        <v>-0.03747148897556968</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07342081976806726</v>
+        <v>-0.1167803408094084</v>
       </c>
       <c r="C91">
-        <v>-0.0724413954240488</v>
+        <v>-0.01615259942433202</v>
       </c>
       <c r="D91">
-        <v>-0.0004908069156381682</v>
+        <v>-0.003051830221888549</v>
       </c>
       <c r="E91">
-        <v>0.005499387204447676</v>
+        <v>0.05910420892645909</v>
       </c>
       <c r="F91">
-        <v>0.0067369520023783</v>
+        <v>0.03173505923778769</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1833322361234561</v>
+        <v>-0.1447570138717481</v>
       </c>
       <c r="C92">
-        <v>0.29343867867729</v>
+        <v>-0.01257001238795927</v>
       </c>
       <c r="D92">
-        <v>0.01555148913035364</v>
+        <v>-0.3052584527648888</v>
       </c>
       <c r="E92">
-        <v>-0.08065229179330265</v>
+        <v>-0.1023918186728056</v>
       </c>
       <c r="F92">
-        <v>0.01767941947863148</v>
+        <v>-0.02868468712816895</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1769880962643839</v>
+        <v>-0.1465131252059672</v>
       </c>
       <c r="C93">
-        <v>0.2967730957270257</v>
+        <v>-0.01773470820960774</v>
       </c>
       <c r="D93">
-        <v>-0.05294605041570437</v>
+        <v>-0.2760374892788821</v>
       </c>
       <c r="E93">
-        <v>-0.03179115023792184</v>
+        <v>-0.07256291987232723</v>
       </c>
       <c r="F93">
-        <v>-0.007909764692686179</v>
+        <v>-0.02762896003381803</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1175184701032444</v>
+        <v>-0.133789320052914</v>
       </c>
       <c r="C94">
-        <v>-0.08632885000076582</v>
+        <v>-0.02375135913037588</v>
       </c>
       <c r="D94">
-        <v>0.01574365003065679</v>
+        <v>0.04818737964648583</v>
       </c>
       <c r="E94">
-        <v>0.03301081317263953</v>
+        <v>0.06246877964498267</v>
       </c>
       <c r="F94">
-        <v>-0.03885038903054222</v>
+        <v>-0.02622345462178659</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.132073690881542</v>
+        <v>-0.1269807281663493</v>
       </c>
       <c r="C95">
-        <v>-0.07398817257500406</v>
+        <v>-0.006284876393146045</v>
       </c>
       <c r="D95">
-        <v>0.011747770232845</v>
+        <v>0.08914166780406516</v>
       </c>
       <c r="E95">
-        <v>-0.07047775177804882</v>
+        <v>0.04188692668494394</v>
       </c>
       <c r="F95">
-        <v>0.1230406331697441</v>
+        <v>0.009956525265562651</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0001348294962830862</v>
+        <v>-0.09502695015322565</v>
       </c>
       <c r="C96">
-        <v>-0.001712785112210579</v>
+        <v>0.9894574596640748</v>
       </c>
       <c r="D96">
-        <v>-0.0002372513348393968</v>
+        <v>-0.01515935709345839</v>
       </c>
       <c r="E96">
-        <v>0.0009229392981445808</v>
+        <v>0.05969158748012768</v>
       </c>
       <c r="F96">
-        <v>0.00199892370809776</v>
+        <v>-0.0499668936058172</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.124584510516001</v>
+        <v>-0.1879171627976984</v>
       </c>
       <c r="C97">
-        <v>0.01932461917154141</v>
+        <v>0.01240295953191105</v>
       </c>
       <c r="D97">
-        <v>0.03659233606360502</v>
+        <v>-0.01201871007809949</v>
       </c>
       <c r="E97">
-        <v>-0.2010183329105993</v>
+        <v>0.0169016639589903</v>
       </c>
       <c r="F97">
-        <v>-0.2151524083054374</v>
+        <v>0.1822942118119675</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2495845023738198</v>
+        <v>-0.2064338519763096</v>
       </c>
       <c r="C98">
-        <v>-0.0960330894144142</v>
+        <v>-0.0070587589713863</v>
       </c>
       <c r="D98">
-        <v>0.08027894669013483</v>
+        <v>0.01367695020315831</v>
       </c>
       <c r="E98">
-        <v>0.2778370837310573</v>
+        <v>-0.09107552747989252</v>
       </c>
       <c r="F98">
-        <v>-0.01475864889394644</v>
+        <v>0.136033731987504</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06781534829103728</v>
+        <v>-0.05780179952069856</v>
       </c>
       <c r="C99">
-        <v>-0.06361516107313323</v>
+        <v>0.002879792278930005</v>
       </c>
       <c r="D99">
-        <v>0.01055950438732913</v>
+        <v>0.03380048832089012</v>
       </c>
       <c r="E99">
-        <v>0.03932476847446737</v>
+        <v>0.02670655477245466</v>
       </c>
       <c r="F99">
-        <v>0.005159817680545513</v>
+        <v>-0.003998250471824831</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1246721711881144</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04717835825076939</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3283048686039653</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9040337251019036</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05169675705197006</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03645007984468818</v>
+        <v>-0.02724699934116535</v>
       </c>
       <c r="C101">
-        <v>-0.03405458758161474</v>
+        <v>-0.009386081332844097</v>
       </c>
       <c r="D101">
-        <v>-0.01675474197618559</v>
+        <v>0.0284376090642087</v>
       </c>
       <c r="E101">
-        <v>-0.05793910128434048</v>
+        <v>0.007664594740594009</v>
       </c>
       <c r="F101">
-        <v>0.007100473504977679</v>
+        <v>0.007196070394561401</v>
       </c>
     </row>
     <row r="102" spans="1:6">
